--- a/Base/Teams/Cardinals/Distributions.xlsx
+++ b/Base/Teams/Cardinals/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>JSU(-1.1960864374866218, 1.2312315907565239, -0.13993592463239796, 2.8089898714542354)</t>
-  </si>
-  <si>
-    <t>NCT(2.5069134665635984, 1.7127197880541134, -0.010197543639012097, 4.547824530618167)</t>
-  </si>
-  <si>
-    <t>NIG(3.198691647677328, 2.1515327658054915, -0.763280705577047, 6.220964605021744)</t>
-  </si>
-  <si>
-    <t>JSU(-1.1641536330372921, 1.2590450538065072, 3.0537808102214328, 4.845550735483613)</t>
+    <t>JSU(-0.9758980442694933, 1.1892427924274336, 0.314572324456495, 3.0340322574224636)</t>
+  </si>
+  <si>
+    <t>NCT(2.5900620673138803, 1.7152424906894583, -0.012907075629254482, 4.587860877770693)</t>
+  </si>
+  <si>
+    <t>NIG(2.8752316438471013, 1.9700193438479292, -0.566268220921977, 5.756398371846208)</t>
+  </si>
+  <si>
+    <t>NIG(1.3008730560350323, 0.9650857246727593, 4.200028673643869, 5.235245364407481)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Cardinals/Distributions.xlsx
+++ b/Base/Teams/Cardinals/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>JSU(-0.9758980442694933, 1.1892427924274336, 0.314572324456495, 3.0340322574224636)</t>
-  </si>
-  <si>
-    <t>NCT(2.5900620673138803, 1.7152424906894583, -0.012907075629254482, 4.587860877770693)</t>
-  </si>
-  <si>
-    <t>NIG(2.8752316438471013, 1.9700193438479292, -0.566268220921977, 5.756398371846208)</t>
-  </si>
-  <si>
-    <t>NIG(1.3008730560350323, 0.9650857246727593, 4.200028673643869, 5.235245364407481)</t>
+    <t>JSU(-1.0355905243196528, 1.1752522890551038, 0.17114115529464008, 2.904084265298856)</t>
+  </si>
+  <si>
+    <t>NIG(1.355267502764655, 1.0508519706661343, 3.702369343293296, 6.3092962029539645)</t>
+  </si>
+  <si>
+    <t>NIG(2.7859255295559726, 1.9544332064097787, -0.5899427290163913, 5.4818348672087005)</t>
+  </si>
+  <si>
+    <t>NCT(2.9014926361742397, 1.8848405886826147, -0.013655882714963697, 3.8764569044233665)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Cardinals/Distributions.xlsx
+++ b/Base/Teams/Cardinals/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>JSU(-1.0355905243196528, 1.1752522890551038, 0.17114115529464008, 2.904084265298856)</t>
-  </si>
-  <si>
-    <t>NIG(1.355267502764655, 1.0508519706661343, 3.702369343293296, 6.3092962029539645)</t>
-  </si>
-  <si>
-    <t>NIG(2.7859255295559726, 1.9544332064097787, -0.5899427290163913, 5.4818348672087005)</t>
-  </si>
-  <si>
-    <t>NCT(2.9014926361742397, 1.8848405886826147, -0.013655882714963697, 3.8764569044233665)</t>
+    <t>JSU(-1.0519647161875545, 1.0991110865503044, 0.19249610671546633, 2.5588274984354804)</t>
+  </si>
+  <si>
+    <t>NIG(1.4768431528356114, 1.1499402947488813, 3.490965681107468, 6.2560067035307885)</t>
+  </si>
+  <si>
+    <t>NCT(4.1999023425282935, 2.429095370980951, -4.2531348033729905, 2.9736980747399633)</t>
+  </si>
+  <si>
+    <t>JSU(-1.094750081683878, 1.1394956085130432, 3.2760913847992232, 4.287021686841069)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Cardinals/Distributions.xlsx
+++ b/Base/Teams/Cardinals/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>JSU(-1.0519647161875545, 1.0991110865503044, 0.19249610671546633, 2.5588274984354804)</t>
-  </si>
-  <si>
-    <t>NIG(1.4768431528356114, 1.1499402947488813, 3.490965681107468, 6.2560067035307885)</t>
-  </si>
-  <si>
-    <t>NCT(4.1999023425282935, 2.429095370980951, -4.2531348033729905, 2.9736980747399633)</t>
-  </si>
-  <si>
-    <t>JSU(-1.094750081683878, 1.1394956085130432, 3.2760913847992232, 4.287021686841069)</t>
+    <t>JSU(-1.0059930486527617, 1.058572957734994, 0.30515861163004443, 2.450896347516224)</t>
+  </si>
+  <si>
+    <t>NIG(1.2863810447940343, 0.9969356232676945, 3.8187708946324035, 6.020804227134572)</t>
+  </si>
+  <si>
+    <t>NCT(4.131518623008334, 2.432922433847569, -4.18450130471581, 2.907104151795513)</t>
+  </si>
+  <si>
+    <t>JSU(-1.0570382694231575, 1.1286620342792175, 3.52636161776874, 4.253816246635148)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Cardinals/Distributions.xlsx
+++ b/Base/Teams/Cardinals/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>JSU(-1.0059930486527617, 1.058572957734994, 0.30515861163004443, 2.450896347516224)</t>
-  </si>
-  <si>
-    <t>NIG(1.2863810447940343, 0.9969356232676945, 3.8187708946324035, 6.020804227134572)</t>
-  </si>
-  <si>
-    <t>NCT(4.131518623008334, 2.432922433847569, -4.18450130471581, 2.907104151795513)</t>
-  </si>
-  <si>
-    <t>JSU(-1.0570382694231575, 1.1286620342792175, 3.52636161776874, 4.253816246635148)</t>
+    <t>JSU(-0.9948501779716727, 1.0695082297450007, 0.34650546570203294, 2.4871216326779506)</t>
+  </si>
+  <si>
+    <t>NIG(1.1832031182873146, 0.8826769137504804, 4.061243333425183, 6.0466985364330395)</t>
+  </si>
+  <si>
+    <t>NIG(1.6160096479263695, 1.2161136324198742, -0.01652738226860799, 4.119951486067391)</t>
+  </si>
+  <si>
+    <t>NIG(1.1867929129822894, 0.9473461574450233, 4.201551075635541, 5.001887420949407)</t>
   </si>
 </sst>
 </file>
